--- a/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-ethnicity-extension.xlsx
+++ b/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-ethnicity-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
